--- a/my sheet.xlsx
+++ b/my sheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayk\OneDrive\Desktop\Git\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB00C429-8419-4073-8C9D-82A1A0AA133D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +25,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,8 +63,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +345,776 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1">
+        <v>16</v>
+      </c>
+      <c r="L7" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1">
+        <v>17</v>
+      </c>
+      <c r="L8" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1">
+        <v>18</v>
+      </c>
+      <c r="L9" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1">
+        <v>19</v>
+      </c>
+      <c r="L10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1">
+        <v>18</v>
+      </c>
+      <c r="J11" s="1">
+        <v>19</v>
+      </c>
+      <c r="K11" s="1">
+        <v>20</v>
+      </c>
+      <c r="L11" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1">
+        <v>19</v>
+      </c>
+      <c r="J12" s="1">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1">
+        <v>21</v>
+      </c>
+      <c r="L12" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1">
+        <v>20</v>
+      </c>
+      <c r="J13" s="1">
+        <v>21</v>
+      </c>
+      <c r="K13" s="1">
+        <v>22</v>
+      </c>
+      <c r="L13" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1">
+        <v>22</v>
+      </c>
+      <c r="K14" s="1">
+        <v>23</v>
+      </c>
+      <c r="L14" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1">
+        <v>19</v>
+      </c>
+      <c r="G15" s="1">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1">
+        <v>22</v>
+      </c>
+      <c r="J15" s="1">
+        <v>23</v>
+      </c>
+      <c r="K15" s="1">
+        <v>24</v>
+      </c>
+      <c r="L15" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1">
+        <v>24</v>
+      </c>
+      <c r="K16" s="1">
+        <v>25</v>
+      </c>
+      <c r="L16" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1">
+        <v>23</v>
+      </c>
+      <c r="I17" s="1">
+        <v>24</v>
+      </c>
+      <c r="J17" s="1">
+        <v>25</v>
+      </c>
+      <c r="K17" s="1">
+        <v>26</v>
+      </c>
+      <c r="L17" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1">
+        <v>22</v>
+      </c>
+      <c r="G18" s="1">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1">
+        <v>24</v>
+      </c>
+      <c r="I18" s="1">
+        <v>25</v>
+      </c>
+      <c r="J18" s="1">
+        <v>26</v>
+      </c>
+      <c r="K18" s="1">
+        <v>27</v>
+      </c>
+      <c r="L18" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1">
+        <v>23</v>
+      </c>
+      <c r="G19" s="1">
+        <v>24</v>
+      </c>
+      <c r="H19" s="1">
+        <v>25</v>
+      </c>
+      <c r="I19" s="1">
+        <v>26</v>
+      </c>
+      <c r="J19" s="1">
+        <v>27</v>
+      </c>
+      <c r="K19" s="1">
+        <v>28</v>
+      </c>
+      <c r="L19" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1">
+        <v>25</v>
+      </c>
+      <c r="H20" s="1">
+        <v>26</v>
+      </c>
+      <c r="I20" s="1">
+        <v>27</v>
+      </c>
+      <c r="J20" s="1">
+        <v>28</v>
+      </c>
+      <c r="K20" s="1">
+        <v>29</v>
+      </c>
+      <c r="L20" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1">
+        <v>25</v>
+      </c>
+      <c r="G21" s="1">
+        <v>26</v>
+      </c>
+      <c r="H21" s="1">
+        <v>27</v>
+      </c>
+      <c r="I21" s="1">
+        <v>28</v>
+      </c>
+      <c r="J21" s="1">
+        <v>29</v>
+      </c>
+      <c r="K21" s="1">
+        <v>30</v>
+      </c>
+      <c r="L21" s="1">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/my sheet.xlsx
+++ b/my sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayk\OneDrive\Desktop\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB00C429-8419-4073-8C9D-82A1A0AA133D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC50A3F-288E-44A1-A195-FACDE66BC575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,20 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="2">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,6 +49,14 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,9 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,15 +366,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L21"/>
+  <dimension ref="A2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L21"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="33.6" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="13" max="13" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -392,7 +415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -429,8 +452,11 @@
       <c r="L3" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -467,8 +493,11 @@
       <c r="L4" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -505,8 +534,11 @@
       <c r="L5" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -543,8 +575,11 @@
       <c r="L6" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -581,8 +616,11 @@
       <c r="L7" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -619,8 +657,11 @@
       <c r="L8" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -657,8 +698,11 @@
       <c r="L9" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -695,8 +739,11 @@
       <c r="L10" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -733,8 +780,11 @@
       <c r="L11" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M11" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -771,8 +821,11 @@
       <c r="L12" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -809,8 +862,11 @@
       <c r="L13" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M13" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -847,8 +903,11 @@
       <c r="L14" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -885,8 +944,11 @@
       <c r="L15" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -923,8 +985,11 @@
       <c r="L16" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -961,8 +1026,11 @@
       <c r="L17" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M17" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -999,8 +1067,11 @@
       <c r="L18" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1037,8 +1108,11 @@
       <c r="L19" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M19" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1075,8 +1149,11 @@
       <c r="L20" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="M20" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.65">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1112,6 +1189,9 @@
       </c>
       <c r="L21" s="1">
         <v>31</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
